--- a/Quiz Activities.xlsx
+++ b/Quiz Activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="11475" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="11475" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lesson 13" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Sample data</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>sampling distribution</t>
+  </si>
+  <si>
+    <t>sample distribution</t>
+  </si>
+  <si>
+    <t>5 six sided dice</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,9 +1129,11 @@
     <col min="7" max="7" width="4.140625" style="3" customWidth="1"/>
     <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1143,8 +1151,11 @@
       <c r="M1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1183,8 +1194,14 @@
         <f>AVERAGE(L2:L7)</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1223,8 +1240,22 @@
         <f>AVERAGE(M2:M7)</f>
         <v>2.9166666666666665</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f>(R3-$P$2)^2</f>
+        <v>6.25</v>
+      </c>
+      <c r="U3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGE(R3:R8)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1263,8 +1294,22 @@
         <f>SQRT(P3)</f>
         <v>1.707825127659933</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S8" si="2">(R4-$P$2)^2</f>
+        <v>2.25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <f>AVERAGE(S3:S8)</f>
+        <v>2.9166666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1289,8 +1334,22 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="U5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5">
+        <f>SQRT(V4)</f>
+        <v>1.707825127659933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>1</v>
       </c>
@@ -1308,8 +1367,22 @@
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="U6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6">
+        <f>V5/SQRT(5)</f>
+        <v>0.76376261582597327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>1</v>
       </c>
@@ -1327,8 +1400,15 @@
         <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1342,8 +1422,15 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1369,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.5</v>
       </c>
@@ -1401,7 +1488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1441,7 +1528,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.5</v>
       </c>
@@ -1463,7 +1550,7 @@
         <v>1.5</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M46" si="2">(L12-$P$11)^2</f>
+        <f t="shared" ref="M12:M46" si="3">(L12-$P$11)^2</f>
         <v>4</v>
       </c>
       <c r="O12" t="s">
@@ -1474,7 +1561,7 @@
         <v>1.4583333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.5</v>
       </c>
@@ -1496,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
       <c r="O13" t="s">
@@ -1507,7 +1594,7 @@
         <v>1.2076147288491199</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1529,11 +1616,19 @@
         <v>2.5</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>P4/SQRT(2)</f>
+        <v>1.2076147288491197</v>
+      </c>
+      <c r="U14">
+        <f>3.49/SQRT(5)</f>
+        <v>1.5607754482948533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.5</v>
       </c>
@@ -1558,11 +1653,11 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1594,7 +1689,7 @@
         <v>3.5</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1613,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F31" si="3">AVERAGE(D17:E17)</f>
+        <f t="shared" ref="F17:F31" si="4">AVERAGE(D17:E17)</f>
         <v>1.5</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1633,7 +1728,7 @@
         <v>1.5</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -1652,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H18">
@@ -1669,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
     </row>
@@ -1688,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="H19">
@@ -1705,7 +1800,7 @@
         <v>2.5</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1724,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="H20">
@@ -1741,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1760,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H21">
@@ -1777,7 +1872,7 @@
         <v>3.5</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1796,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="H22">
@@ -1813,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1832,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H23">
@@ -1849,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
     </row>
@@ -1868,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H24">
@@ -1885,7 +1980,7 @@
         <v>2.5</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1897,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="H25">
@@ -1914,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1926,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H26">
@@ -1943,7 +2038,7 @@
         <v>3.5</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1955,7 +2050,7 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="H27">
@@ -1972,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1984,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="H28">
@@ -2001,7 +2096,7 @@
         <v>4.5</v>
       </c>
       <c r="M28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2013,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H29">
@@ -2030,7 +2125,7 @@
         <v>2.5</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2042,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="H30">
@@ -2059,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2071,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H31">
@@ -2088,7 +2183,7 @@
         <v>3.5</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2107,7 +2202,7 @@
         <v>4</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2126,7 +2221,7 @@
         <v>4.5</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2145,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
     </row>
@@ -2164,7 +2259,7 @@
         <v>3</v>
       </c>
       <c r="M35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2183,7 +2278,7 @@
         <v>3.5</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2211,7 +2306,7 @@
         <v>4.5</v>
       </c>
       <c r="M38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2220,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
     </row>
@@ -2229,7 +2324,7 @@
         <v>5.5</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2238,7 +2333,7 @@
         <v>3.5</v>
       </c>
       <c r="M41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2247,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="M42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2256,7 +2351,7 @@
         <v>4.5</v>
       </c>
       <c r="M43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2265,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="M44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
     </row>
@@ -2274,7 +2369,7 @@
         <v>5.5</v>
       </c>
       <c r="M45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2283,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="M46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
     </row>
